--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/4 INVENTARIOS/8  INVENTARIO FISICO.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/4 INVENTARIOS/8  INVENTARIO FISICO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toño\Desktop\AUDITORIA FINANCIERA ENVIAR\5 PRUEBAS SUSTANTIVAS\4 INVENTARIOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\4 INVENTARIOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B7D549-B8C7-4692-AA93-D61EACC35758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="8250"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,23 +28,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Elaboro:</t>
   </si>
   <si>
-    <t xml:space="preserve">                       Auditoria de Estados Financieros</t>
-  </si>
-  <si>
     <t>Fecha:</t>
   </si>
   <si>
     <t>Reviso:</t>
   </si>
   <si>
-    <t xml:space="preserve">                          INVENTARIO FISICO</t>
-  </si>
-  <si>
     <t>N°</t>
   </si>
   <si>
@@ -72,12 +67,6 @@
   </si>
   <si>
     <t>Auditor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             Del 01 de enero al 31 de diciembre del 2024 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                               Entidad</t>
   </si>
   <si>
     <t>Existencia S/ Sistema</t>
@@ -103,11 +92,26 @@
       <t>Estos resultados se obtuvieron durante el proceso de inventario físico llevado a cabo el XX de septiembre de 2024.</t>
     </r>
   </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <t>Auditoria de Estados Financieros</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
+  </si>
+  <si>
+    <t>INVENTARIO FISICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-7 </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -138,11 +142,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -198,6 +197,14 @@
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -317,67 +324,68 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -413,7 +421,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -461,87 +475,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CuadroTexto 2"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10258425" y="590551"/>
-          <a:ext cx="866775" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-GT" sz="1500" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>D-7</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-GT" sz="1500" b="1" i="0">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
       <xdr:row>19</xdr:row>
@@ -555,7 +488,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CuadroTexto 3"/>
+        <xdr:cNvPr id="4" name="CuadroTexto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -878,11 +817,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B6:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,268 +835,279 @@
     <col min="8" max="8" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
-      <c r="I6" s="3"/>
+      <c r="I6" s="25" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="I7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E8" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="14"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="I8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E9" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="I9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="14"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="I9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="14"/>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="I10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J10" s="14"/>
+      <c r="E10" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="I10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="10"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I11" s="8"/>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="E13" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="G13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="20" t="s">
+      <c r="H13" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="20" t="s">
+    </row>
+    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="11">
+        <v>1</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="11">
+        <v>2</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="11">
+        <v>3</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="11">
+        <v>4</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="11">
+        <v>5</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="9"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="9"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B23" s="9"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="9"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B25" s="9"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="8"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+    </row>
+    <row r="34" spans="2:10" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B34" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="H34" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="18"/>
+    </row>
+    <row r="35" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="21" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="15">
-        <v>1</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="15">
-        <v>2</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="15">
-        <v>3</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="15">
-        <v>4</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="15">
-        <v>5</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-    </row>
-    <row r="20" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B20" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="10"/>
-    </row>
-    <row r="21" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="13"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="10"/>
-    </row>
-    <row r="22" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="13"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="10"/>
-    </row>
-    <row r="23" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="10"/>
-    </row>
-    <row r="24" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="13"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="10"/>
-    </row>
-    <row r="25" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B25" s="13"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="10"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-    </row>
-    <row r="27" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B27" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="12"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-    </row>
-    <row r="34" spans="2:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B34" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="H34" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" s="22"/>
-    </row>
-    <row r="35" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="B13:H13"/>
+  <autoFilter ref="B13:H13" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <mergeCells count="4">
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+  </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
